--- a/BattleNoid_V2/Assets/@Resorces/Data/PlayerData.xlsx
+++ b/BattleNoid_V2/Assets/@Resorces/Data/PlayerData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\깃\Vampire_0403\BattleNoid_V2\Assets\Resources\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_Project\Vampire\BattleNoid_V2\Assets\@Resorces\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B08E0C8-7D84-48AB-89FE-B7BA5E5FD165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerData" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>index</t>
   </si>
@@ -48,45 +49,37 @@
   </si>
   <si>
     <t>cost</t>
-  </si>
-  <si>
-    <t>111111A</t>
-  </si>
-  <si>
-    <t>TestPlayer</t>
-  </si>
-  <si>
-    <t>111112A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Serena</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>111113A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ember</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111111A</t>
+  </si>
+  <si>
+    <t>111112A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -393,23 +386,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9.125" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,21 +428,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
       <c r="D2">
-        <v>10</v>
+        <v>1500</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -458,24 +451,24 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -484,32 +477,6 @@
         <v>10</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>2000</v>
-      </c>
-      <c r="E4">
-        <v>130</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4">
         <v>0</v>
       </c>
     </row>

--- a/BattleNoid_V2/Assets/@Resorces/Data/PlayerData.xlsx
+++ b/BattleNoid_V2/Assets/@Resorces/Data/PlayerData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_Project\Vampire\BattleNoid_V2\Assets\@Resorces\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Gitfork\Vampire\BattleNoid_V2\Assets\@Resorces\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B08E0C8-7D84-48AB-89FE-B7BA5E5FD165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73413A32-6083-4AC9-A76E-9332F07452BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerData" sheetId="1" r:id="rId1"/>
@@ -59,10 +59,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>111111A</t>
-  </si>
-  <si>
-    <t>111112A</t>
+    <t>111111P</t>
+  </si>
+  <si>
+    <t>111112P</t>
   </si>
 </sst>
 </file>

--- a/BattleNoid_V2/Assets/@Resorces/Data/PlayerData.xlsx
+++ b/BattleNoid_V2/Assets/@Resorces/Data/PlayerData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Gitfork\Vampire\BattleNoid_V2\Assets\@Resorces\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_Project\Vampire\BattleNoid_V2\Assets\@Resorces\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73413A32-6083-4AC9-A76E-9332F07452BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C49F1F-AD62-403F-AE91-B2BB328BCF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>index</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>111112P</t>
+  </si>
+  <si>
+    <t>baseAttackSpeed</t>
   </si>
 </sst>
 </file>
@@ -387,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -398,11 +401,11 @@
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,10 +428,13 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -451,10 +457,13 @@
         <v>10</v>
       </c>
       <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -477,6 +486,9 @@
         <v>10</v>
       </c>
       <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
     </row>

--- a/BattleNoid_V2/Assets/@Resorces/Data/PlayerData.xlsx
+++ b/BattleNoid_V2/Assets/@Resorces/Data/PlayerData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_Project\Vampire\BattleNoid_V2\Assets\@Resorces\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Gitfork\Vampire\BattleNoid_V2\Assets\@Resorces\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C49F1F-AD62-403F-AE91-B2BB328BCF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56A57AF-8255-4F19-90EC-3CE266324499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>index</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>baseAttackSpeed</t>
+  </si>
+  <si>
+    <t>bulletSpeed</t>
+  </si>
+  <si>
+    <t>baseRotSpeed</t>
   </si>
 </sst>
 </file>
@@ -390,22 +396,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,16 +433,22 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -451,19 +465,25 @@
         <v>100</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <v>10</v>
       </c>
       <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
         <v>5</v>
       </c>
-      <c r="I2">
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
@@ -480,15 +500,21 @@
         <v>130</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>10</v>
       </c>
       <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
         <v>5</v>
       </c>
-      <c r="I3">
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
         <v>0</v>
       </c>
     </row>

--- a/BattleNoid_V2/Assets/@Resorces/Data/PlayerData.xlsx
+++ b/BattleNoid_V2/Assets/@Resorces/Data/PlayerData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Gitfork\Vampire\BattleNoid_V2\Assets\@Resorces\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56A57AF-8255-4F19-90EC-3CE266324499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DB63B0-3DA7-45D2-B450-76A4B17B71B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>index</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>baseRotSpeed</t>
+  </si>
+  <si>
+    <t>skill1</t>
+  </si>
+  <si>
+    <t>skill2</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -396,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -413,7 +422,7 @@
     <col min="11" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,10 +454,16 @@
         <v>13</v>
       </c>
       <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
@@ -479,11 +494,17 @@
       <c r="J2">
         <v>3</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
@@ -514,7 +535,13 @@
       <c r="J3">
         <v>3</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3">
         <v>0</v>
       </c>
     </row>

--- a/BattleNoid_V2/Assets/@Resorces/Data/PlayerData.xlsx
+++ b/BattleNoid_V2/Assets/@Resorces/Data/PlayerData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Gitfork\Vampire\BattleNoid_V2\Assets\@Resorces\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2학년 팀플\0414\Vampire\BattleNoid_V2\Assets\@Resorces\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983ED7A9-F061-4582-B9BB-0BF8242ED175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF62028-8105-41B3-AD16-90101A87C457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2175" yWindow="3990" windowWidth="22350" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerData" sheetId="1" r:id="rId1"/>
@@ -80,11 +80,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -586,7 +592,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -655,7 +661,7 @@
         <v>100</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -664,10 +670,10 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>6</v>
@@ -696,19 +702,19 @@
         <v>120</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>10</v>
       </c>
       <c r="H3">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>6</v>
@@ -724,6 +730,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
 </worksheet>

--- a/BattleNoid_V2/Assets/@Resorces/Data/PlayerData.xlsx
+++ b/BattleNoid_V2/Assets/@Resorces/Data/PlayerData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2학년 팀플\0414\Vampire\BattleNoid_V2\Assets\@Resorces\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Gitfork\Vampire\BattleNoid_V2\Assets\@Resorces\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF62028-8105-41B3-AD16-90101A87C457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9C0994-0E68-475E-B7DC-CF1336132C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="3990" windowWidth="22350" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerData" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>baseMoveSpeed</t>
   </si>
@@ -52,9 +52,6 @@
     <t>bulletSpeed</t>
   </si>
   <si>
-    <t>skill2</t>
-  </si>
-  <si>
     <t>null</t>
   </si>
   <si>
@@ -70,10 +67,19 @@
     <t>111112P</t>
   </si>
   <si>
-    <t>skill1</t>
-  </si>
-  <si>
     <t>Ember</t>
+  </si>
+  <si>
+    <t>firstSkillName</t>
+  </si>
+  <si>
+    <t>secondSkillName</t>
+  </si>
+  <si>
+    <t>firstSkillCoolDown</t>
+  </si>
+  <si>
+    <t>secondSkillCoolDown</t>
   </si>
 </sst>
 </file>
@@ -589,10 +595,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -603,10 +609,13 @@
     <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.125" customWidth="1"/>
+    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -641,21 +650,27 @@
         <v>16</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>100</v>
@@ -679,24 +694,30 @@
         <v>6</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>30</v>
+      </c>
+      <c r="O2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
       </c>
       <c r="D3">
         <v>120</v>
@@ -720,12 +741,18 @@
         <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>0</v>
       </c>
     </row>

--- a/BattleNoid_V2/Assets/@Resorces/Data/PlayerData.xlsx
+++ b/BattleNoid_V2/Assets/@Resorces/Data/PlayerData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Gitfork\Vampire\BattleNoid_V2\Assets\@Resorces\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_Project\Vampire\BattleNoid_V2\Assets\@Resorces\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5771EECC-195F-46A2-A8E1-C1719B96CA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5282F8DE-E208-4188-A738-230C941B7ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerData" sheetId="1" r:id="rId1"/>

--- a/BattleNoid_V2/Assets/@Resorces/Data/PlayerData.xlsx
+++ b/BattleNoid_V2/Assets/@Resorces/Data/PlayerData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_Project\Vampire\BattleNoid_V2\Assets\@Resorces\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shingu-103\Vampire\BattleNoid_V2\Assets\@Resorces\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5282F8DE-E208-4188-A738-230C941B7ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerData" sheetId="1" r:id="rId1"/>
@@ -85,12 +84,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -300,7 +305,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -309,7 +314,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -587,12 +592,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -691,13 +696,13 @@
         <v>17</v>
       </c>
       <c r="L2">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="M2" t="s">
         <v>17</v>
       </c>
       <c r="N2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -751,7 +756,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>